--- a/data/trans_orig/P32B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93215F61-F74F-48FC-B5CA-D6B2480F8E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5651F231-3AFD-4A09-BB64-029FE2381EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A1ECFA4-5A42-4CE1-BC3D-4A18E747EBA1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55F08CCF-9AD6-47D6-B31C-02E6F0033A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="383">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,1075 +77,1117 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>97,65%</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790B9386-DD5B-49CF-86CA-887212964B13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6659A54A-BBDE-4111-A030-28E922FCFFB7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1997,7 +2039,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2006,13 +2048,13 @@
         <v>1018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2024,7 +2066,7 @@
         <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>55</v>
@@ -2045,7 +2087,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>46</v>
@@ -2057,10 +2099,10 @@
         <v>223253</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -2075,10 +2117,10 @@
         <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2218,13 @@
         <v>1173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,7 +2242,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -2212,10 +2254,10 @@
         <v>144030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>46</v>
@@ -2227,10 +2269,10 @@
         <v>457524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>46</v>
@@ -2289,7 +2331,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2301,13 +2343,13 @@
         <v>6276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2316,13 +2358,13 @@
         <v>1030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2331,13 +2373,13 @@
         <v>7306</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2394,13 @@
         <v>173816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -2367,10 +2409,10 @@
         <v>74406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
@@ -2382,13 +2424,13 @@
         <v>248221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,7 +2486,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2456,13 +2498,13 @@
         <v>1007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2477,7 +2519,7 @@
         <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2486,13 +2528,13 @@
         <v>1007</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,10 +2549,10 @@
         <v>201927</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>46</v>
@@ -2525,7 +2567,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2537,10 +2579,10 @@
         <v>247845</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>46</v>
@@ -2611,13 +2653,13 @@
         <v>15343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2626,13 +2668,13 @@
         <v>9331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -2641,13 +2683,13 @@
         <v>24674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2704,13 @@
         <v>1864575</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>865</v>
@@ -2677,13 +2719,13 @@
         <v>885189</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>2695</v>
@@ -2692,13 +2734,13 @@
         <v>2749765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,7 +2796,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2010F34-127B-49FB-8564-4ADF060CB019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5467B443-59A4-44EE-BE45-282F3A5FE9C3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2793,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,13 +2942,13 @@
         <v>15038</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2915,13 +2957,13 @@
         <v>5124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -2930,13 +2972,13 @@
         <v>20163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2993,13 @@
         <v>265485</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -2966,13 +3008,13 @@
         <v>178397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>435</v>
@@ -2981,13 +3023,13 @@
         <v>443881</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3097,13 @@
         <v>14468</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3070,13 +3112,13 @@
         <v>1135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3085,13 +3127,13 @@
         <v>15603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,16 +3145,16 @@
         <v>442</v>
       </c>
       <c r="D8" s="7">
-        <v>453328</v>
+        <v>453329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -3121,10 +3163,10 @@
         <v>212300</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -3136,13 +3178,13 @@
         <v>665628</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3196,7 @@
         <v>456</v>
       </c>
       <c r="D9" s="7">
-        <v>467796</v>
+        <v>467797</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3210,13 +3252,13 @@
         <v>12525</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3225,13 +3267,13 @@
         <v>947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3240,13 +3282,13 @@
         <v>13472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3303,13 @@
         <v>415536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>223</v>
@@ -3276,10 +3318,10 @@
         <v>243415</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -3291,13 +3333,13 @@
         <v>658951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3407,13 @@
         <v>6152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3386,7 +3428,7 @@
         <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3395,13 +3437,13 @@
         <v>6152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3458,13 @@
         <v>387956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3434,7 +3476,7 @@
         <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3446,13 +3488,13 @@
         <v>601330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3520,13 +3562,13 @@
         <v>4020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3541,7 +3583,7 @@
         <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3550,13 +3592,13 @@
         <v>4020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,10 +3613,10 @@
         <v>227771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>182</v>
@@ -3589,7 +3631,7 @@
         <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3601,13 +3643,13 @@
         <v>339964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,7 +3705,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3675,13 +3717,13 @@
         <v>6258</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3696,7 +3738,7 @@
         <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3705,13 +3747,13 @@
         <v>6258</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3768,13 @@
         <v>233706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -3744,7 +3786,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3756,13 +3798,13 @@
         <v>315557</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3872,13 @@
         <v>58462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3845,13 +3887,13 @@
         <v>7207</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3860,13 +3902,13 @@
         <v>65668</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,28 +3923,28 @@
         <v>1983782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H23" s="7">
         <v>956</v>
       </c>
       <c r="I23" s="7">
-        <v>1041530</v>
+        <v>1041529</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M23" s="7">
         <v>2822</v>
@@ -3911,13 +3953,13 @@
         <v>3025312</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3986,7 @@
         <v>963</v>
       </c>
       <c r="I24" s="7">
-        <v>1048737</v>
+        <v>1048736</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3973,7 +4015,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3995,7 +4037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B011647-0D92-45EC-A423-73E837995FF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8E3A35-2758-4451-9A65-E31BB8292BD9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4012,7 +4054,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4119,13 +4161,13 @@
         <v>6312</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4134,13 +4176,13 @@
         <v>2992</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4152,10 +4194,10 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4212,13 @@
         <v>249955</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
         <v>172</v>
@@ -4185,13 +4227,13 @@
         <v>167724</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>408</v>
@@ -4203,10 +4245,10 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4316,13 @@
         <v>12220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4289,13 +4331,13 @@
         <v>4784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4304,13 +4346,13 @@
         <v>17004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4367,13 @@
         <v>353469</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
@@ -4340,13 +4382,13 @@
         <v>220753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M8" s="7">
         <v>566</v>
@@ -4355,13 +4397,13 @@
         <v>574222</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4471,13 @@
         <v>7783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4444,13 +4486,13 @@
         <v>1764</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4459,13 +4501,13 @@
         <v>9548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4522,13 @@
         <v>424459</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4495,10 +4537,10 @@
         <v>246769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -4507,16 +4549,16 @@
         <v>650</v>
       </c>
       <c r="N11" s="7">
-        <v>671227</v>
+        <v>671228</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4600,7 @@
         <v>660</v>
       </c>
       <c r="N12" s="7">
-        <v>680775</v>
+        <v>680776</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4584,13 +4626,13 @@
         <v>9068</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4599,13 +4641,13 @@
         <v>2216</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4614,13 +4656,13 @@
         <v>11284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4677,13 @@
         <v>379696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -4650,10 +4692,10 @@
         <v>264037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>46</v>
@@ -4665,13 +4707,13 @@
         <v>643734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,7 +4769,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4739,13 +4781,13 @@
         <v>5092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4760,7 +4802,7 @@
         <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4769,13 +4811,13 @@
         <v>5092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4832,13 @@
         <v>281649</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -4808,7 +4850,7 @@
         <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4820,13 +4862,13 @@
         <v>411176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,7 +4924,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4894,13 +4936,13 @@
         <v>1760</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4915,7 +4957,7 @@
         <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4924,13 +4966,13 @@
         <v>1760</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,10 +4987,10 @@
         <v>271151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>46</v>
@@ -4963,7 +5005,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4975,10 +5017,10 @@
         <v>375328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>46</v>
@@ -5049,13 +5091,13 @@
         <v>42235</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5064,13 +5106,13 @@
         <v>11756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5079,13 +5121,13 @@
         <v>53991</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5142,13 @@
         <v>1960379</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
         <v>1082</v>
@@ -5115,13 +5157,13 @@
         <v>1132989</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>291</v>
+        <v>189</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>2938</v>
@@ -5130,13 +5172,13 @@
         <v>3093368</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,7 +5234,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5214,7 +5256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7338016-9854-4B5D-A650-404E87B1239F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80CFA2D-90D8-457A-B30F-7374EAA246ED}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5231,7 +5273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5338,13 +5380,13 @@
         <v>160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5353,13 +5395,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5368,13 +5410,13 @@
         <v>4729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,10 +5431,10 @@
         <v>161056</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>46</v>
@@ -5404,13 +5446,13 @@
         <v>108261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>133</v>
@@ -5419,13 +5461,13 @@
         <v>269316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5535,13 @@
         <v>8695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5508,13 +5550,13 @@
         <v>938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5523,13 +5565,13 @@
         <v>9634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5586,13 @@
         <v>218696</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -5559,10 +5601,10 @@
         <v>150934</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -5574,13 +5616,13 @@
         <v>369629</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5705,13 @@
         <v>2161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5678,13 +5720,13 @@
         <v>4854</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,10 +5744,10 @@
         <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -5714,13 +5756,13 @@
         <v>157185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>490</v>
@@ -5729,13 +5771,13 @@
         <v>441932</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5845,13 @@
         <v>4398</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5818,13 +5860,13 @@
         <v>2538</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5833,13 +5875,13 @@
         <v>6936</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5896,13 @@
         <v>349291</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -5869,13 +5911,13 @@
         <v>201863</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>647</v>
@@ -5884,13 +5926,13 @@
         <v>551153</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,7 +5988,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5958,13 +6000,13 @@
         <v>9819</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5973,13 +6015,13 @@
         <v>3851</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5988,13 +6030,13 @@
         <v>13669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6051,13 @@
         <v>268608</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>234</v>
@@ -6024,13 +6066,13 @@
         <v>141113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -6039,13 +6081,13 @@
         <v>409722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,7 +6143,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6113,13 +6155,13 @@
         <v>4656</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6128,13 +6170,13 @@
         <v>903</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6143,13 +6185,13 @@
         <v>5559</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6206,13 @@
         <v>302973</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>201</v>
@@ -6179,10 +6221,10 @@
         <v>220831</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
@@ -6194,13 +6236,13 @@
         <v>523803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6310,13 @@
         <v>30421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6283,13 +6325,13 @@
         <v>14961</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -6298,13 +6340,13 @@
         <v>45382</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6361,13 @@
         <v>1585370</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>379</v>
       </c>
       <c r="H23" s="7">
         <v>1182</v>
@@ -6334,13 +6376,13 @@
         <v>980185</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>2732</v>
@@ -6349,13 +6391,13 @@
         <v>2565555</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6453,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5651F231-3AFD-4A09-BB64-029FE2381EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85342A98-4CC4-4F0D-9A53-B734C3BCF8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55F08CCF-9AD6-47D6-B31C-02E6F0033A8D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2A04949-F9F0-41F7-92BA-071F5DD6DD48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="385">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,999 +143,1011 @@
     <t>0,17%</t>
   </si>
   <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
     <t>97,03%</t>
   </si>
   <si>
@@ -1157,9 +1169,6 @@
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
     <t>2,71%</t>
   </si>
   <si>
@@ -1176,9 +1185,6 @@
   </si>
   <si>
     <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
   </si>
   <si>
     <t>98,5%</t>
@@ -1599,7 +1605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6659A54A-BBDE-4111-A030-28E922FCFFB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C89C14-D59C-40D4-B4FB-24B8DAF29595}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2039,7 +2045,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2048,13 +2054,13 @@
         <v>1018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2066,10 +2072,10 @@
         <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,10 +2090,10 @@
         <v>399943</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>46</v>
@@ -2099,10 +2105,10 @@
         <v>223253</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -2114,13 +2120,13 @@
         <v>623196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,7 +2182,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2191,10 +2197,10 @@
         <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2203,13 +2209,13 @@
         <v>1173</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2218,13 +2224,13 @@
         <v>1173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,7 +2248,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -2254,10 +2260,10 @@
         <v>144030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>46</v>
@@ -2269,7 +2275,7 @@
         <v>457524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>72</v>
@@ -2516,7 +2522,7 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>93</v>
@@ -2689,7 +2695,7 @@
         <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2710,13 @@
         <v>1864575</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>865</v>
@@ -2719,13 +2725,13 @@
         <v>885189</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>2695</v>
@@ -2734,13 +2740,13 @@
         <v>2749765</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,7 +2802,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5467B443-59A4-44EE-BE45-282F3A5FE9C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E03372-C88E-4434-8788-986A0E1B38E3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2948,13 @@
         <v>15038</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2957,13 +2963,13 @@
         <v>5124</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -2972,13 +2978,13 @@
         <v>20163</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2999,13 @@
         <v>265485</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -3008,13 +3014,13 @@
         <v>178397</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>435</v>
@@ -3023,13 +3029,13 @@
         <v>443881</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3103,13 @@
         <v>14468</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3112,13 +3118,13 @@
         <v>1135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3127,13 +3133,13 @@
         <v>15603</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,16 +3151,16 @@
         <v>442</v>
       </c>
       <c r="D8" s="7">
-        <v>453329</v>
+        <v>453328</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -3163,10 +3169,10 @@
         <v>212300</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -3178,13 +3184,13 @@
         <v>665628</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,7 +3202,7 @@
         <v>456</v>
       </c>
       <c r="D9" s="7">
-        <v>467797</v>
+        <v>467796</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3258,7 +3264,7 @@
         <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3267,13 +3273,13 @@
         <v>947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3282,13 +3288,13 @@
         <v>13472</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3309,13 @@
         <v>415536</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>223</v>
@@ -3318,10 +3324,10 @@
         <v>243415</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -3333,13 +3339,13 @@
         <v>658951</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,7 +3401,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3407,13 +3413,13 @@
         <v>6152</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3425,10 +3431,10 @@
         <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3437,13 +3443,13 @@
         <v>6152</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3464,13 @@
         <v>387956</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3476,7 +3482,7 @@
         <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3488,13 +3494,13 @@
         <v>601330</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3568,13 @@
         <v>4020</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3580,10 +3586,10 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3592,13 +3598,13 @@
         <v>4020</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3619,13 @@
         <v>227771</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -3720,10 +3726,10 @@
         <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3735,10 +3741,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3747,13 +3753,13 @@
         <v>6258</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3774,13 @@
         <v>233706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -3786,7 +3792,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3798,13 +3804,13 @@
         <v>315557</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,10 +3881,10 @@
         <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3887,13 +3893,13 @@
         <v>7207</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3902,13 +3908,13 @@
         <v>65668</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,25 +3932,25 @@
         <v>87</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>956</v>
       </c>
       <c r="I23" s="7">
-        <v>1041529</v>
+        <v>1041530</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>216</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M23" s="7">
         <v>2822</v>
@@ -3953,7 +3959,7 @@
         <v>3025312</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>219</v>
@@ -3986,7 +3992,7 @@
         <v>963</v>
       </c>
       <c r="I24" s="7">
-        <v>1048736</v>
+        <v>1048737</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4015,7 +4021,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4037,7 +4043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8E3A35-2758-4451-9A65-E31BB8292BD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A7476-55A4-4909-9BFC-5B52ACBCCAA0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4164,10 +4170,10 @@
         <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4176,13 +4182,13 @@
         <v>2992</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4194,10 +4200,10 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4218,13 @@
         <v>249955</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>172</v>
@@ -4227,13 +4233,13 @@
         <v>167724</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>408</v>
@@ -4245,10 +4251,10 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4322,13 @@
         <v>12220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4331,13 +4337,13 @@
         <v>4784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4346,13 +4352,13 @@
         <v>17004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4373,13 @@
         <v>353469</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
@@ -4382,13 +4388,13 @@
         <v>220753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8" s="7">
         <v>566</v>
@@ -4397,13 +4403,13 @@
         <v>574222</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4477,13 @@
         <v>7783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4486,13 +4492,13 @@
         <v>1764</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4501,13 +4507,13 @@
         <v>9548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4528,13 @@
         <v>424459</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4537,10 +4543,10 @@
         <v>246769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -4558,7 +4564,7 @@
         <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,7 +4620,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4629,10 +4635,10 @@
         <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4641,7 +4647,7 @@
         <v>2216</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
@@ -4656,10 +4662,10 @@
         <v>11284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>265</v>
@@ -4683,7 +4689,7 @@
         <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -4692,7 +4698,7 @@
         <v>264037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>269</v>
@@ -4707,13 +4713,13 @@
         <v>643734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,10 +4790,10 @@
         <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4799,10 +4805,10 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4814,10 +4820,10 @@
         <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4838,13 @@
         <v>281649</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -4850,7 +4856,7 @@
         <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4862,13 +4868,13 @@
         <v>411176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4942,13 @@
         <v>1760</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4954,10 +4960,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4966,13 +4972,13 @@
         <v>1760</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,10 +4993,10 @@
         <v>271151</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>46</v>
@@ -5005,7 +5011,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5017,10 +5023,10 @@
         <v>375328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>46</v>
@@ -5091,13 +5097,13 @@
         <v>42235</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5106,13 +5112,13 @@
         <v>11756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5121,13 +5127,13 @@
         <v>53991</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>14</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5148,13 @@
         <v>1960379</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>1082</v>
@@ -5157,13 +5163,13 @@
         <v>1132989</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>298</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>2938</v>
@@ -5172,13 +5178,13 @@
         <v>3093368</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>299</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,7 +5240,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5256,7 +5262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80CFA2D-90D8-457A-B30F-7374EAA246ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA82EF-81C9-4D5F-9D87-5D75EA7CDAB7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5273,7 +5279,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5380,13 +5386,13 @@
         <v>160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5395,13 +5401,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5410,13 +5416,13 @@
         <v>4729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,10 +5437,10 @@
         <v>161056</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>46</v>
@@ -5446,13 +5452,13 @@
         <v>108261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>133</v>
@@ -5461,13 +5467,13 @@
         <v>269316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5541,13 @@
         <v>8695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5550,13 +5556,13 @@
         <v>938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5565,13 +5571,13 @@
         <v>9634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5592,13 @@
         <v>218696</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -5601,10 +5607,10 @@
         <v>150934</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -5616,7 +5622,7 @@
         <v>369629</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>321</v>
@@ -5705,13 +5711,13 @@
         <v>2161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5720,13 +5726,13 @@
         <v>4854</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,10 +5750,10 @@
         <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -5756,13 +5762,13 @@
         <v>157185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>490</v>
@@ -5771,13 +5777,13 @@
         <v>441932</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,7 +5839,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5845,13 +5851,13 @@
         <v>4398</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5860,13 +5866,13 @@
         <v>2538</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5875,13 +5881,13 @@
         <v>6936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5902,13 @@
         <v>349291</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -5911,10 +5917,10 @@
         <v>201863</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>99</v>
@@ -5926,13 +5932,13 @@
         <v>551153</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6006,13 @@
         <v>9819</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6015,13 +6021,13 @@
         <v>3851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -6030,13 +6036,13 @@
         <v>13669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6057,13 @@
         <v>268608</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>234</v>
@@ -6066,13 +6072,13 @@
         <v>141113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -6081,13 +6087,13 @@
         <v>409722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6161,13 @@
         <v>4656</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6170,13 +6176,13 @@
         <v>903</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6185,13 +6191,13 @@
         <v>5559</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,10 +6212,10 @@
         <v>302973</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>47</v>
@@ -6221,10 +6227,10 @@
         <v>220831</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
@@ -6236,13 +6242,13 @@
         <v>523803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6316,13 @@
         <v>30421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>68</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6325,13 +6331,13 @@
         <v>14961</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -6340,13 +6346,13 @@
         <v>45382</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6367,13 @@
         <v>1585370</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
         <v>1182</v>
@@ -6376,13 +6382,13 @@
         <v>980185</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
         <v>2732</v>
@@ -6391,13 +6397,13 @@
         <v>2565555</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,7 +6459,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85342A98-4CC4-4F0D-9A53-B734C3BCF8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76109E4A-FB96-4B30-A890-204A705BB71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2A04949-F9F0-41F7-92BA-071F5DD6DD48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60349F5A-E361-40DD-BCA3-5F3C5E3FD446}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="369">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -80,1120 +80,1072 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>3,79%</t>
+    <t>3,53%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,58%</t>
+    <t>1,59%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,42%</t>
+    <t>98,41%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>97,65%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C89C14-D59C-40D4-B4FB-24B8DAF29595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5653524C-2FDD-4362-A91F-86AAC16AFFE8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2072,10 +2024,10 @@
         <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,10 +2042,10 @@
         <v>399943</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>46</v>
@@ -2105,10 +2057,10 @@
         <v>223253</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -2120,13 +2072,13 @@
         <v>623196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,7 +2134,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2197,10 +2149,10 @@
         <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2209,13 +2161,13 @@
         <v>1173</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2230,7 +2182,7 @@
         <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,7 +2200,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -2260,10 +2212,10 @@
         <v>144030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>46</v>
@@ -2278,7 +2230,7 @@
         <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>46</v>
@@ -2337,7 +2289,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2349,13 +2301,13 @@
         <v>6276</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2364,13 +2316,13 @@
         <v>1030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2379,13 +2331,13 @@
         <v>7306</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2352,13 @@
         <v>173816</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -2415,10 +2367,10 @@
         <v>74406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>46</v>
@@ -2430,13 +2382,13 @@
         <v>248221</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,7 +2444,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2504,13 +2456,13 @@
         <v>1007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2522,10 +2474,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2534,13 +2486,13 @@
         <v>1007</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,10 +2507,10 @@
         <v>201927</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>46</v>
@@ -2573,7 +2525,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2585,10 +2537,10 @@
         <v>247845</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>46</v>
@@ -2659,13 +2611,13 @@
         <v>15343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2674,13 +2626,13 @@
         <v>9331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -2689,13 +2641,13 @@
         <v>24674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2662,13 @@
         <v>1864575</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="H23" s="7">
         <v>865</v>
@@ -2725,13 +2677,13 @@
         <v>885189</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>2695</v>
@@ -2740,13 +2692,13 @@
         <v>2749765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,7 +2754,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E03372-C88E-4434-8788-986A0E1B38E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D1724E-8934-456B-ABC4-B0B765002832}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,13 +2900,13 @@
         <v>15038</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2963,13 +2915,13 @@
         <v>5124</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -2978,13 +2930,13 @@
         <v>20163</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2951,13 @@
         <v>265485</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -3014,13 +2966,13 @@
         <v>178397</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>435</v>
@@ -3029,13 +2981,13 @@
         <v>443881</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3055,13 @@
         <v>14468</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3118,13 +3070,13 @@
         <v>1135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3133,13 +3085,13 @@
         <v>15603</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3106,13 @@
         <v>453328</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -3169,10 +3121,10 @@
         <v>212300</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -3184,13 +3136,13 @@
         <v>665628</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3210,13 @@
         <v>12525</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3273,13 +3225,13 @@
         <v>947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3288,13 +3240,13 @@
         <v>13472</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3261,13 @@
         <v>415536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>223</v>
@@ -3324,10 +3276,10 @@
         <v>243415</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -3339,13 +3291,13 @@
         <v>658951</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,7 +3353,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3413,13 +3365,13 @@
         <v>6152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3431,10 +3383,10 @@
         <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3443,13 +3395,13 @@
         <v>6152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3416,13 @@
         <v>387956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3482,7 +3434,7 @@
         <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3494,13 +3446,13 @@
         <v>601330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3508,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3568,13 +3520,13 @@
         <v>4020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3586,10 +3538,10 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3598,13 +3550,13 @@
         <v>4020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3571,13 @@
         <v>227771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -3637,7 +3589,7 @@
         <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3649,13 +3601,13 @@
         <v>339964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,7 +3663,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3723,13 +3675,13 @@
         <v>6258</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3741,10 +3693,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3753,13 +3705,13 @@
         <v>6258</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3726,13 @@
         <v>233706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -3792,7 +3744,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3804,13 +3756,13 @@
         <v>315557</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3830,13 @@
         <v>58462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3893,13 +3845,13 @@
         <v>7207</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3908,13 +3860,13 @@
         <v>65668</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3881,13 @@
         <v>1983782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7">
         <v>956</v>
@@ -3944,13 +3896,13 @@
         <v>1041530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M23" s="7">
         <v>2822</v>
@@ -3959,13 +3911,13 @@
         <v>3025312</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,7 +3973,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4043,7 +3995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A7476-55A4-4909-9BFC-5B52ACBCCAA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A76A85-A387-4B24-A041-EFCFAE2C025D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4060,7 +4012,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4167,13 +4119,13 @@
         <v>6312</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4182,13 +4134,13 @@
         <v>2992</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4200,10 +4152,10 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4170,13 @@
         <v>249955</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>172</v>
@@ -4233,13 +4185,13 @@
         <v>167724</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>408</v>
@@ -4251,10 +4203,10 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4274,13 @@
         <v>12220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4337,13 +4289,13 @@
         <v>4784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4352,13 +4304,13 @@
         <v>17004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4325,13 @@
         <v>353469</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
@@ -4388,13 +4340,13 @@
         <v>220753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M8" s="7">
         <v>566</v>
@@ -4403,13 +4355,13 @@
         <v>574222</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4429,13 @@
         <v>7783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4492,13 +4444,13 @@
         <v>1764</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4507,13 +4459,13 @@
         <v>9548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4480,13 @@
         <v>424459</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4543,10 +4495,10 @@
         <v>246769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -4555,16 +4507,16 @@
         <v>650</v>
       </c>
       <c r="N11" s="7">
-        <v>671228</v>
+        <v>671227</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,7 +4558,7 @@
         <v>660</v>
       </c>
       <c r="N12" s="7">
-        <v>680776</v>
+        <v>680775</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4620,7 +4572,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4632,13 +4584,13 @@
         <v>9068</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4647,13 +4599,13 @@
         <v>2216</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4662,13 +4614,13 @@
         <v>11284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4635,13 @@
         <v>379696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -4698,10 +4650,10 @@
         <v>264037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>46</v>
@@ -4713,13 +4665,13 @@
         <v>643734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,7 +4727,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4787,13 +4739,13 @@
         <v>5092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4805,10 +4757,10 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4817,13 +4769,13 @@
         <v>5092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4790,13 @@
         <v>281649</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -4856,7 +4808,7 @@
         <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4868,13 +4820,13 @@
         <v>411176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,7 +4882,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4942,13 +4894,13 @@
         <v>1760</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4960,10 +4912,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4972,13 +4924,13 @@
         <v>1760</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,10 +4945,10 @@
         <v>271151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>46</v>
@@ -5011,7 +4963,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5023,10 +4975,10 @@
         <v>375328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>46</v>
@@ -5097,13 +5049,13 @@
         <v>42235</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5112,13 +5064,13 @@
         <v>11756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5127,13 +5079,13 @@
         <v>53991</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5100,13 @@
         <v>1960379</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>1082</v>
@@ -5163,13 +5115,13 @@
         <v>1132989</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>2938</v>
@@ -5178,13 +5130,13 @@
         <v>3093368</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +5192,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5262,7 +5214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA82EF-81C9-4D5F-9D87-5D75EA7CDAB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAC8370-7DA2-4586-951A-2115B1B7E762}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5279,7 +5231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5386,13 +5338,13 @@
         <v>160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5401,13 +5353,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5416,13 +5368,13 @@
         <v>4729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,10 +5389,10 @@
         <v>161056</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>46</v>
@@ -5467,7 +5419,7 @@
         <v>269316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>307</v>
@@ -5556,13 +5508,13 @@
         <v>938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5571,10 +5523,10 @@
         <v>9634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>315</v>
@@ -5607,10 +5559,10 @@
         <v>150934</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -5622,13 +5574,13 @@
         <v>369629</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5663,13 @@
         <v>2161</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5726,10 +5678,10 @@
         <v>4854</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>328</v>
@@ -5762,10 +5714,10 @@
         <v>157185</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>332</v>
@@ -5777,13 +5729,13 @@
         <v>441932</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,7 +5791,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5869,10 +5821,10 @@
         <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5884,10 +5836,10 @@
         <v>335</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5854,13 @@
         <v>349291</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -5917,13 +5869,13 @@
         <v>201863</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>647</v>
@@ -5932,13 +5884,13 @@
         <v>551153</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,7 +5946,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6006,13 +5958,13 @@
         <v>9819</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6021,13 +5973,13 @@
         <v>3851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>349</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -6036,13 +5988,13 @@
         <v>13669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>351</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>352</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6009,13 @@
         <v>268608</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>234</v>
@@ -6072,13 +6024,13 @@
         <v>141113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -6087,13 +6039,13 @@
         <v>409722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,7 +6101,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6161,13 +6113,13 @@
         <v>4656</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6176,13 +6128,13 @@
         <v>903</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6191,13 +6143,13 @@
         <v>5559</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6164,13 @@
         <v>302973</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>357</v>
       </c>
       <c r="H20" s="7">
         <v>201</v>
@@ -6227,10 +6179,10 @@
         <v>220831</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
@@ -6242,13 +6194,13 @@
         <v>523803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6268,13 @@
         <v>30421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>376</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6331,13 +6283,13 @@
         <v>14961</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -6346,13 +6298,13 @@
         <v>45382</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6319,13 @@
         <v>1585370</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>211</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>1182</v>
@@ -6382,13 +6334,13 @@
         <v>980185</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>2732</v>
@@ -6397,13 +6349,13 @@
         <v>2565555</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,7 +6411,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76109E4A-FB96-4B30-A890-204A705BB71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC9EF1C0-DAF4-4A7C-B026-881901F35D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60349F5A-E361-40DD-BCA3-5F3C5E3FD446}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7CEB343B-097E-4929-9AAD-F2DC6C20B73B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="406">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -191,7 +191,7 @@
     <t>99,74%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -224,7 +224,7 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0%</t>
@@ -254,7 +254,7 @@
     <t>98,49%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,48%</t>
@@ -305,37 +305,58 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -602,234 +623,264 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>2,61%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
     <t>97,1%</t>
   </si>
   <si>
@@ -869,283 +920,343 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1668,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5653524C-2FDD-4362-A91F-86AAC16AFFE8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2CEE76-B264-40BB-858F-5C105E61F267}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2450,19 +2561,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2477,22 +2588,22 @@
         <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1007</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,49 +2612,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="D20" s="7">
-        <v>201927</v>
+        <v>129799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>45918</v>
+        <v>29393</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="N20" s="7">
-        <v>247845</v>
+        <v>159191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="D21" s="7">
-        <v>202934</v>
+        <v>129799</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2567,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I21" s="7">
-        <v>45918</v>
+        <v>29393</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2582,10 +2693,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="N21" s="7">
-        <v>248852</v>
+        <v>159191</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2599,55 +2710,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>15343</v>
+        <v>1007</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1007</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H22" s="7">
-        <v>9</v>
-      </c>
-      <c r="I22" s="7">
-        <v>9331</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="7">
-        <v>24</v>
-      </c>
-      <c r="N22" s="7">
-        <v>24674</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,49 +2767,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1830</v>
+        <v>73</v>
       </c>
       <c r="D23" s="7">
-        <v>1864575</v>
+        <v>72128</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
-        <v>865</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7">
-        <v>885189</v>
+        <v>16525</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>2695</v>
+        <v>87</v>
       </c>
       <c r="N23" s="7">
-        <v>2749765</v>
+        <v>88653</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,63 +2818,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7">
+        <v>73135</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7">
+        <v>16525</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>88</v>
+      </c>
+      <c r="N24" s="7">
+        <v>89660</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7">
+        <v>15343</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="7">
+        <v>9</v>
+      </c>
+      <c r="I25" s="7">
+        <v>9331</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" s="7">
+        <v>24</v>
+      </c>
+      <c r="N25" s="7">
+        <v>24674</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1830</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1864575</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="7">
+        <v>865</v>
+      </c>
+      <c r="I26" s="7">
+        <v>885189</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2695</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2749765</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1845</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1879918</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>874</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>894520</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2719</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2774439</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>115</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2776,8 +3043,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D1724E-8934-456B-ABC4-B0B765002832}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A57448-D9C1-4903-A39C-B9623FD1A74B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2793,7 +3060,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,13 +3167,13 @@
         <v>15038</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2915,13 +3182,13 @@
         <v>5124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -2930,13 +3197,13 @@
         <v>20163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +3218,13 @@
         <v>265485</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -2966,13 +3233,13 @@
         <v>178397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>435</v>
@@ -2981,13 +3248,13 @@
         <v>443881</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3322,13 @@
         <v>14468</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3070,13 +3337,13 @@
         <v>1135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3085,13 +3352,13 @@
         <v>15603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,16 +3370,16 @@
         <v>442</v>
       </c>
       <c r="D8" s="7">
-        <v>453328</v>
+        <v>453329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -3121,10 +3388,10 @@
         <v>212300</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -3136,13 +3403,13 @@
         <v>665628</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3421,7 @@
         <v>456</v>
       </c>
       <c r="D9" s="7">
-        <v>467796</v>
+        <v>467797</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3210,13 +3477,13 @@
         <v>12525</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3225,13 +3492,13 @@
         <v>947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3240,13 +3507,13 @@
         <v>13472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,10 +3528,10 @@
         <v>415536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>82</v>
@@ -3276,10 +3543,10 @@
         <v>243415</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -3291,13 +3558,13 @@
         <v>658951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,10 +3632,10 @@
         <v>6152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>37</v>
@@ -3386,7 +3653,7 @@
         <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3395,13 +3662,13 @@
         <v>6152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3683,13 @@
         <v>387956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3434,7 +3701,7 @@
         <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3443,16 +3710,16 @@
         <v>534</v>
       </c>
       <c r="N14" s="7">
-        <v>601330</v>
+        <v>601331</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,7 +3761,7 @@
         <v>540</v>
       </c>
       <c r="N15" s="7">
-        <v>607482</v>
+        <v>607483</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3520,13 +3787,13 @@
         <v>4020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3541,7 +3808,7 @@
         <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3550,13 +3817,13 @@
         <v>4020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3838,13 @@
         <v>227771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -3589,7 +3856,7 @@
         <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3601,13 +3868,13 @@
         <v>339964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,19 +3936,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>6258</v>
+        <v>3965</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3696,22 +3963,22 @@
         <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>6258</v>
+        <v>3965</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,49 +3987,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="D20" s="7">
-        <v>233706</v>
+        <v>150468</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I20" s="7">
-        <v>81851</v>
+        <v>57482</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="N20" s="7">
-        <v>315557</v>
+        <v>207950</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,10 +4038,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="D21" s="7">
-        <v>239964</v>
+        <v>154433</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3786,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I21" s="7">
-        <v>81851</v>
+        <v>57482</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3801,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="N21" s="7">
-        <v>321815</v>
+        <v>211915</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3818,55 +4085,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>58462</v>
+        <v>2294</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>7207</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="M22" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>65668</v>
+        <v>2294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,49 +4142,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1866</v>
+        <v>73</v>
       </c>
       <c r="D23" s="7">
-        <v>1983782</v>
+        <v>83238</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
-        <v>956</v>
+        <v>22</v>
       </c>
       <c r="I23" s="7">
-        <v>1041530</v>
+        <v>24368</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>2822</v>
+        <v>95</v>
       </c>
       <c r="N23" s="7">
-        <v>3025312</v>
+        <v>107606</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,63 +4193,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7">
+        <v>85532</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24368</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>96</v>
+      </c>
+      <c r="N24" s="7">
+        <v>109900</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>55</v>
+      </c>
+      <c r="D25" s="7">
+        <v>58462</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7207</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="7">
+        <v>62</v>
+      </c>
+      <c r="N25" s="7">
+        <v>65668</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1866</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1983782</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H26" s="7">
+        <v>956</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1041530</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2822</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3025312</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1921</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2042244</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>963</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1048737</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2884</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3090980</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>115</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3995,8 +4418,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A76A85-A387-4B24-A041-EFCFAE2C025D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C8D20A-BC63-4DE2-A55C-23944CA91670}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4012,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4119,13 +4542,13 @@
         <v>6312</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4134,13 +4557,13 @@
         <v>2992</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4152,10 +4575,10 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4593,13 @@
         <v>249955</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>172</v>
@@ -4185,13 +4608,13 @@
         <v>167724</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>408</v>
@@ -4203,10 +4626,10 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4697,13 @@
         <v>12220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4289,13 +4712,13 @@
         <v>4784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4304,13 +4727,13 @@
         <v>17004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4748,13 @@
         <v>353469</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
@@ -4340,10 +4763,10 @@
         <v>220753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>68</v>
@@ -4355,13 +4778,13 @@
         <v>574222</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4852,13 @@
         <v>7783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4444,13 +4867,13 @@
         <v>1764</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4459,13 +4882,13 @@
         <v>9548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4903,13 @@
         <v>424459</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4495,10 +4918,10 @@
         <v>246769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -4510,13 +4933,13 @@
         <v>671227</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +5007,13 @@
         <v>9068</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4599,13 +5022,13 @@
         <v>2216</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4614,13 +5037,13 @@
         <v>11284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +5058,13 @@
         <v>379696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -4650,10 +5073,10 @@
         <v>264037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>46</v>
@@ -4665,13 +5088,13 @@
         <v>643734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +5162,13 @@
         <v>5092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4760,7 +5183,7 @@
         <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4769,13 +5192,13 @@
         <v>5092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +5213,13 @@
         <v>281649</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -4808,7 +5231,7 @@
         <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4820,13 +5243,13 @@
         <v>411176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,19 +5311,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1760</v>
+        <v>960</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4915,22 +5338,22 @@
         <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1760</v>
+        <v>960</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,46 +5362,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="D20" s="7">
-        <v>271151</v>
+        <v>176524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H20" s="7">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I20" s="7">
-        <v>104177</v>
+        <v>67603</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>150</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>367</v>
+        <v>233</v>
       </c>
       <c r="N20" s="7">
-        <v>375328</v>
+        <v>244127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>57</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>46</v>
@@ -4990,10 +5413,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="D21" s="7">
-        <v>272911</v>
+        <v>177484</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5005,10 +5428,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I21" s="7">
-        <v>104177</v>
+        <v>67603</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5020,10 +5443,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>369</v>
+        <v>234</v>
       </c>
       <c r="N21" s="7">
-        <v>377088</v>
+        <v>245087</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5037,55 +5460,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>42235</v>
+        <v>799</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>11756</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>53991</v>
+        <v>799</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,49 +5517,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1856</v>
+        <v>109</v>
       </c>
       <c r="D23" s="7">
-        <v>1960379</v>
+        <v>94628</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
-        <v>1082</v>
+        <v>25</v>
       </c>
       <c r="I23" s="7">
-        <v>1132989</v>
+        <v>36575</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>2938</v>
+        <v>134</v>
       </c>
       <c r="N23" s="7">
-        <v>3093368</v>
+        <v>131202</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,63 +5568,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>110</v>
+      </c>
+      <c r="D24" s="7">
+        <v>95427</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7">
+        <v>36575</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>135</v>
+      </c>
+      <c r="N24" s="7">
+        <v>132001</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7">
+        <v>42235</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="7">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7">
+        <v>11756</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" s="7">
+        <v>51</v>
+      </c>
+      <c r="N25" s="7">
+        <v>53991</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1856</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1960379</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1082</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1132989</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2938</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3093368</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1895</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2002614</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1094</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1144745</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2989</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3147359</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>115</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5214,8 +5793,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAC8370-7DA2-4586-951A-2115B1B7E762}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DC385B-6932-4651-B603-A9F7BE476EA2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5231,7 +5810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5335,46 +5914,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>4569</v>
+        <v>4001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>4729</v>
+        <v>4166</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5965,13 @@
         <v>69</v>
       </c>
       <c r="D5" s="7">
-        <v>161056</v>
+        <v>169738</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>46</v>
@@ -5401,31 +5980,31 @@
         <v>64</v>
       </c>
       <c r="I5" s="7">
-        <v>108261</v>
+        <v>96850</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7">
         <v>133</v>
       </c>
       <c r="N5" s="7">
-        <v>269316</v>
+        <v>266587</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +6016,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5452,7 +6031,7 @@
         <v>67</v>
       </c>
       <c r="I6" s="7">
-        <v>112830</v>
+        <v>100851</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5467,7 +6046,7 @@
         <v>137</v>
       </c>
       <c r="N6" s="7">
-        <v>274045</v>
+        <v>270753</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5490,46 +6069,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>8695</v>
+        <v>10469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>938</v>
+        <v>857</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>9634</v>
+        <v>11326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,28 +6120,28 @@
         <v>149</v>
       </c>
       <c r="D8" s="7">
-        <v>218696</v>
+        <v>219666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
       </c>
       <c r="I8" s="7">
-        <v>150934</v>
+        <v>141396</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -5571,16 +6150,16 @@
         <v>289</v>
       </c>
       <c r="N8" s="7">
-        <v>369629</v>
+        <v>361062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +6171,7 @@
         <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>227391</v>
+        <v>230135</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5607,7 +6186,7 @@
         <v>141</v>
       </c>
       <c r="I9" s="7">
-        <v>151872</v>
+        <v>142253</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5622,7 +6201,7 @@
         <v>296</v>
       </c>
       <c r="N9" s="7">
-        <v>379263</v>
+        <v>372388</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5645,46 +6224,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>2693</v>
+        <v>2624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2161</v>
+        <v>1952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>4854</v>
+        <v>4576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,46 +6275,46 @@
         <v>265</v>
       </c>
       <c r="D11" s="7">
-        <v>284747</v>
+        <v>278534</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
       </c>
       <c r="I11" s="7">
-        <v>157185</v>
+        <v>148138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>490</v>
       </c>
       <c r="N11" s="7">
-        <v>441932</v>
+        <v>426672</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,7 +6326,7 @@
         <v>269</v>
       </c>
       <c r="D12" s="7">
-        <v>287440</v>
+        <v>281158</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5762,7 +6341,7 @@
         <v>228</v>
       </c>
       <c r="I12" s="7">
-        <v>159346</v>
+        <v>150090</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5777,7 +6356,7 @@
         <v>497</v>
       </c>
       <c r="N12" s="7">
-        <v>446786</v>
+        <v>431248</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5800,46 +6379,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>4398</v>
+        <v>4087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>336</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>2538</v>
+        <v>2317</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>6936</v>
+        <v>6404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,46 +6430,46 @@
         <v>329</v>
       </c>
       <c r="D14" s="7">
-        <v>349291</v>
+        <v>340017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
       </c>
       <c r="I14" s="7">
-        <v>201863</v>
+        <v>189586</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>647</v>
       </c>
       <c r="N14" s="7">
-        <v>551153</v>
+        <v>529603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,7 +6481,7 @@
         <v>334</v>
       </c>
       <c r="D15" s="7">
-        <v>353689</v>
+        <v>344104</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5917,7 +6496,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7">
-        <v>204401</v>
+        <v>191903</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5932,7 +6511,7 @@
         <v>657</v>
       </c>
       <c r="N15" s="7">
-        <v>558089</v>
+        <v>536007</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5955,46 +6534,46 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>9819</v>
+        <v>9266</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>344</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>3851</v>
+        <v>3544</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>137</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>13669</v>
+        <v>12810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,46 +6585,46 @@
         <v>294</v>
       </c>
       <c r="D17" s="7">
-        <v>268608</v>
+        <v>253748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>234</v>
       </c>
       <c r="I17" s="7">
-        <v>141113</v>
+        <v>131213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
       </c>
       <c r="N17" s="7">
-        <v>409722</v>
+        <v>384961</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,7 +6636,7 @@
         <v>305</v>
       </c>
       <c r="D18" s="7">
-        <v>278427</v>
+        <v>263014</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6072,7 +6651,7 @@
         <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>144964</v>
+        <v>134757</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6087,7 +6666,7 @@
         <v>545</v>
       </c>
       <c r="N18" s="7">
-        <v>423391</v>
+        <v>397771</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6107,49 +6686,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>4656</v>
+        <v>2520</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>351</v>
+        <v>286</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>903</v>
+        <v>450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>5559</v>
+        <v>2970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,49 +6737,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>444</v>
+        <v>282</v>
       </c>
       <c r="D20" s="7">
-        <v>302973</v>
+        <v>186775</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="I20" s="7">
-        <v>220831</v>
+        <v>278949</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M20" s="7">
-        <v>645</v>
+        <v>431</v>
       </c>
       <c r="N20" s="7">
-        <v>523803</v>
+        <v>465724</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,10 +6788,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>452</v>
+        <v>287</v>
       </c>
       <c r="D21" s="7">
-        <v>307629</v>
+        <v>189295</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6224,10 +6803,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="I21" s="7">
-        <v>221734</v>
+        <v>279399</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6239,10 +6818,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>655</v>
+        <v>437</v>
       </c>
       <c r="N21" s="7">
-        <v>529362</v>
+        <v>468694</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6256,55 +6835,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>30421</v>
+        <v>1816</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
       <c r="H22" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>14961</v>
+        <v>404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>73</v>
+        <v>384</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>45382</v>
+        <v>2220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>232</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,49 +6892,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1550</v>
+        <v>162</v>
       </c>
       <c r="D23" s="7">
-        <v>1585370</v>
+        <v>98219</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>211</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
-        <v>1182</v>
+        <v>52</v>
       </c>
       <c r="I23" s="7">
-        <v>980185</v>
+        <v>26192</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
-        <v>2732</v>
+        <v>214</v>
       </c>
       <c r="N23" s="7">
-        <v>2565555</v>
+        <v>124411</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>366</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,63 +6943,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>100035</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>53</v>
+      </c>
+      <c r="I24" s="7">
+        <v>26596</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>218</v>
+      </c>
+      <c r="N24" s="7">
+        <v>126631</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>35</v>
+      </c>
+      <c r="D25" s="7">
+        <v>30947</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="7">
+        <v>20</v>
+      </c>
+      <c r="I25" s="7">
+        <v>13525</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="M25" s="7">
+        <v>55</v>
+      </c>
+      <c r="N25" s="7">
+        <v>44472</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1550</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1546697</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1182</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1012322</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2732</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2559019</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1585</v>
       </c>
-      <c r="D24" s="7">
-        <v>1615791</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1577644</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1202</v>
       </c>
-      <c r="I24" s="7">
-        <v>995146</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1025847</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2787</v>
       </c>
-      <c r="N24" s="7">
-        <v>2610937</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>115</v>
+      <c r="N27" s="7">
+        <v>2603491</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
